--- a/pred_ohlcv/54_21/2020-01-11 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 ETC ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>-1435.296730324278</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,7 +730,7 @@
         <v>210.246369675722</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>219.261969675722</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>119.261969675722</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-107.108030324278</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-95.99803032427799</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>6.050669675722006</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-53.21703032427799</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-64.31703032427799</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>792.120469675722</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>707.838969675722</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>707.838969675722</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1477.028074993046</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1613.889374993046</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2010.868174993046</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3010.312874993046</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>7392.367924737509</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>11066.62142473751</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>4116.694335078329</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>4152.72323507833</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>4180.387235078329</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>4180.387235078329</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>4119.36523507833</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>4297.95653507833</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>4297.95653507833</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>6199.21713507833</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>6125.72663507833</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>6125.47663507833</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>6125.47663507833</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>6134.05743507833</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>6132.95283507833</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>5640.99113507833</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>5727.86733507833</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>5727.86733507833</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>6482.941004772727</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>7104.929293482404</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>6691.479693482404</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>6548.081693482404</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>6697.028293482404</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>6544.674093482405</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>6519.231293482405</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>6524.431293482405</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>10484.67960477273</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>10473.04128354274</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>10599.27898354274</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>11349.25988354274</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>11301.93928354274</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>11469.29622334207</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>11623.91682334207</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>12114.48892334207</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>10637.44531908141</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>10637.44531908141</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>10637.44531908141</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>9256.095019081415</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>9252.091819081415</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>9013.185419081416</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>8930.047819081416</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-11 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 ETC ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-1516.774430324278</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1516.774430324278</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1435.296730324278</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-24.51443032427801</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -730,7 +730,7 @@
         <v>210.246369675722</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>219.261969675722</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>119.261969675722</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-107.108030324278</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-95.99803032427799</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>6.050669675722006</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-53.21703032427799</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-64.31703032427799</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>792.120469675722</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>707.838969675722</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>707.838969675722</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1047.838969675722</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1477.028074993046</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1613.889374993046</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2010.868174993046</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3010.312874993046</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>7392.367924737509</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>10638.36872473751</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>11042.17432473751</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>11387.52202473751</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>11387.52202473751</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>11382.95642473751</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>11066.62142473751</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>11066.62142473751</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>11166.62142473751</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>11140.58312473751</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>10631.85412473751</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>10658.46482473751</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>11005.44082473751</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>10911.67602473751</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>11070.71142473751</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>11070.71142473751</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>11071.71142473751</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>11071.43812473751</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>10947.35592473751</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>10864.85412473751</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>10864.85412473751</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>10864.85412473751</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>10947.55412473751</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>11003.29612473751</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>10872.80412473751</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>10872.80412473751</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>10872.80412473751</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>10873.80412473751</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>10404.30122473751</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>4116.694335078329</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>4152.72323507833</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>4180.387235078329</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>4180.387235078329</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>4119.36523507833</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>4297.95653507833</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>4297.95653507833</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>6199.21713507833</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>6125.72663507833</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>6125.47663507833</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>6125.47663507833</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>6134.05743507833</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>6132.95283507833</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>5640.99113507833</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>5727.86733507833</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>5727.86733507833</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>6482.941004772727</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>7104.929293482404</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>6691.479693482404</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>6548.081693482404</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>6697.028293482404</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>6544.674093482405</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>6519.231293482405</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>6524.431293482405</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>11715.89650477273</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>12113.34630477273</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>11053.35130477273</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>10484.67960477273</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>9614.842604772728</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>9648.973704772729</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>9562.055504772728</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>9787.896404772728</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>9583.019404772727</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>9583.019404772727</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>9520.580404772727</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>9518.199004772727</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>9674.030704772727</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>10049.40210477273</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>9675.115404772727</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>8743.068504772727</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>9606.561692388565</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>9606.561692388565</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>9494.413692388565</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>9494.413692388565</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>10579.75428354274</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>10473.04128354274</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>10599.27898354274</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>11349.25988354274</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>11301.93928354274</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>11469.29622334207</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>11623.91682334207</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>12114.48892334207</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>10637.44531908141</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>10637.44531908141</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>10637.44531908141</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>9256.095019081415</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>9252.091819081415</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>9013.185419081416</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>8930.047819081416</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
